--- a/Andrew-annotations/GVNC_Q2_2008.xlsx
+++ b/Andrew-annotations/GVNC_Q2_2008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D8382B-33D6-4771-B770-CA8C99953A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22714151-866A-40D5-A66A-376F154B1EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,10 +582,10 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -669,16 +669,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -701,16 +701,16 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -762,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -890,22 +890,22 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="360" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
